--- a/docs/input/dodatok5_3TCK_WORK.xlsx
+++ b/docs/input/dodatok5_3TCK_WORK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MilitaryOblikSpring\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Military_Accounting2023\military_oblik_khpi\docs\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1970,7 +1970,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2575,7 +2575,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
